--- a/medicine/Enfance/Sur_la_piste_de_Fawcett/Sur_la_piste_de_Fawcett.xlsx
+++ b/medicine/Enfance/Sur_la_piste_de_Fawcett/Sur_la_piste_de_Fawcett.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur la piste de Fawcett est le 3e roman de la série Bob Morane écrit par Henri Vernes et publié en 1954 par les Éditions Gérard et Cie dans la collection Marabout Junior (n°26). 
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans cette nouvelle aventure, qui se déroule dans le Mato Grosso, Bob Morane part à la recherche de l'explorateur Percy Fawcett, accompagné de son ami Alejandro Rias, ancien compagnon de Polytechnique devenu propriétaire d'un ranch près de Cuiabá, et du serviteur indien de ce dernier, Chinu. Il fait alors face à tous les dangers inhérents à la forêt amazonienne: jaguar, piranhas, anacondas. Il affronte également des tribus féroces (les Xavántes, les Morcegos). Il ne retrouve pas Fawcett mais parvient à découvrir la cité perdue des Musus, recherchée par l'explorateur disparu.
 </t>
@@ -543,7 +557,9 @@
           <t>Personnages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Bob Morane.
 Alejandro Rias : éleveur brésilien dont les terres sont situées près de Cuiabá dans le Mato Grosso.
@@ -583,7 +599,9 @@
           <t>Commentaire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Percy Fawcett a vraiment existé. Il a disparu avec son fils et un autre compagnon en 1925, après qu'il fut parti en expédition dans le but de retrouver une cité antédiluvienne entre le rio Xingu et la serra do Roncador. Les tribus indiennes que Bob Morane rencontre sur son chemin (les Kalapalo, les Xavántes) existent également. Les Kalopalos vivent dans le Haut-Xingu sur les rives du rio Culuene. Les Xavántes habitent les environs de la Serra de Roncador.
 Une autre originalité de ce roman est qu'on peut le situer chronologiquement de façon exacte, contrairement à la plupart des autres aventures de Bob Morane. En effet, dans le chapitre 2 un poste de radio annonce les résultats de l'expertise faite par l'Institut Royal d'anthropologie de Londres, concernant l'identification des os retrouvés sur le rio Kuluene et que l'on croyait être ceux de Fawcett. Or la communication de cette nouvelle s'est faite en avril 1951. On peut donc en conclure que l'histoire du roman se déroule au printemps 1951.
@@ -616,7 +634,9 @@
           <t>Adaptation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le roman a été adapté en bande dessinée par Felicísimo Coria en 2012.[réf. nécessaire]
 </t>
